--- a/Project_POC/volunteer_data.xlsx
+++ b/Project_POC/volunteer_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Innovitech\Desktop\JKU - MSC 1\Project_POC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Innovitech\Desktop\JKU - MSC 1\ProjectInDataScience\Project_POC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67695AEE-7EBD-4E05-98E4-FBCA1882DCE1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF14362B-DDCB-4371-8C84-53898AED3D03}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00B76DE4-BA8C-416E-A9D6-7BF056550519}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="149">
   <si>
     <t>platform_id</t>
   </si>
@@ -336,13 +336,151 @@
   </si>
   <si>
     <t>https://volunteeringimpact.eu/</t>
+  </si>
+  <si>
+    <t>F_PRICE</t>
+  </si>
+  <si>
+    <t>Pricing Model</t>
+  </si>
+  <si>
+    <t>License / subscription model and cost transparency</t>
+  </si>
+  <si>
+    <t>F_HOST</t>
+  </si>
+  <si>
+    <t>Hosting &amp; Deployment</t>
+  </si>
+  <si>
+    <t>Cloud / on-premise options, data location control</t>
+  </si>
+  <si>
+    <t>F_EXPORT</t>
+  </si>
+  <si>
+    <t>Data Export &amp; API</t>
+  </si>
+  <si>
+    <t>CSV/Excel export, REST API, integrations to BI</t>
+  </si>
+  <si>
+    <t>F_IMPORT</t>
+  </si>
+  <si>
+    <t>Data Import / Migration</t>
+  </si>
+  <si>
+    <t>Tools to import existing volunteer / task data</t>
+  </si>
+  <si>
+    <t>F_MATCH_ADV</t>
+  </si>
+  <si>
+    <t>Advanced Matching</t>
+  </si>
+  <si>
+    <t>Rule-based or algorithmic matching, weighting, etc.</t>
+  </si>
+  <si>
+    <t>F_REPORT_ADV</t>
+  </si>
+  <si>
+    <t>Advanced Analytics</t>
+  </si>
+  <si>
+    <t>Dashboards, custom reports, drill-down views</t>
+  </si>
+  <si>
+    <t>F_MULTI_ORG</t>
+  </si>
+  <si>
+    <t>Multi-organization Support</t>
+  </si>
+  <si>
+    <t>Managing multiple branches / locations in one tool</t>
+  </si>
+  <si>
+    <t>F_APPROVAL</t>
+  </si>
+  <si>
+    <t>Workflows &amp; Approvals</t>
+  </si>
+  <si>
+    <t>Configurable approval flows for tasks or sign-ups</t>
+  </si>
+  <si>
+    <t>F_HELP</t>
+  </si>
+  <si>
+    <t>In-App Help &amp; Guidance</t>
+  </si>
+  <si>
+    <t>Tooltips, wizards, context help inside the UI</t>
+  </si>
+  <si>
+    <t>F_TRAINING</t>
+  </si>
+  <si>
+    <t>Training &amp; Onboarding Materials</t>
+  </si>
+  <si>
+    <t>Tutorials, webinars, knowledge base for staff</t>
+  </si>
+  <si>
+    <t>F_CUSTOM</t>
+  </si>
+  <si>
+    <t>Configuration &amp; Customization</t>
+  </si>
+  <si>
+    <t>Custom fields, forms, views; effort to configure</t>
+  </si>
+  <si>
+    <t>F_ACCESSCTL</t>
+  </si>
+  <si>
+    <t>Role &amp; Permission Management</t>
+  </si>
+  <si>
+    <t>Fine-grained roles, permissions, access control</t>
+  </si>
+  <si>
+    <t>F_AUDIT</t>
+  </si>
+  <si>
+    <t>Audit Logs</t>
+  </si>
+  <si>
+    <t>Logging of changes, actions, and access events</t>
+  </si>
+  <si>
+    <t>F_MOBILE</t>
+  </si>
+  <si>
+    <t>Mobile Experience</t>
+  </si>
+  <si>
+    <t>Native app or mobile-optimized web interface</t>
+  </si>
+  <si>
+    <t>F_FEEDBACK</t>
+  </si>
+  <si>
+    <t>Feedback &amp; Survey Tools</t>
+  </si>
+  <si>
+    <t>Built-in surveys, feedback forms, satisfaction</t>
+  </si>
+  <si>
+    <t>integrates with third-party</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -369,8 +507,15 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1F2328"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -389,8 +534,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6F8FA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -413,12 +570,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD1D9E0"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD1D9E0"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFD1D9E0"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFD1D9E0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -428,6 +600,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hivatkozás" xfId="1" builtinId="8"/>
@@ -745,8 +929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC89426C-3E90-43C7-9056-60B395A0DEAF}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -940,10 +1124,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A05AA76-331D-4946-9EAD-2D76F25DA274}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="34.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1132,7 +1316,9 @@
       <c r="C14" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D14" s="3"/>
+      <c r="D14" s="3" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="15" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
@@ -1196,6 +1382,216 @@
       </c>
       <c r="D19" s="4" t="s">
         <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -1206,10 +1602,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F47DD0B2-83E7-42A9-89D4-17D300B12979}">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1473,7 +1869,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -1481,7 +1877,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>16</v>
       </c>
@@ -1489,7 +1885,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>18</v>
       </c>
@@ -1497,7 +1893,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>12</v>
       </c>
@@ -1505,7 +1901,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>20</v>
       </c>
@@ -1513,7 +1909,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>22</v>
       </c>
@@ -1521,7 +1917,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>24</v>
       </c>
@@ -1529,7 +1925,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>26</v>
       </c>
@@ -1537,12 +1933,296 @@
         <v>86</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>28</v>
       </c>
       <c r="B41" t="s">
         <v>86</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42" t="s">
+        <v>56</v>
+      </c>
+      <c r="C42" s="9"/>
+      <c r="D42" s="7"/>
+    </row>
+    <row r="43" spans="1:4" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>2</v>
+      </c>
+      <c r="B43" t="s">
+        <v>70</v>
+      </c>
+      <c r="C43" s="10"/>
+      <c r="D43" s="8"/>
+    </row>
+    <row r="44" spans="1:4" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44" t="s">
+        <v>59</v>
+      </c>
+      <c r="C44" s="9"/>
+      <c r="D44" s="7"/>
+    </row>
+    <row r="45" spans="1:4" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>2</v>
+      </c>
+      <c r="B45" t="s">
+        <v>73</v>
+      </c>
+      <c r="C45" s="10"/>
+      <c r="D45" s="8"/>
+    </row>
+    <row r="46" spans="1:4" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>2</v>
+      </c>
+      <c r="B46" t="s">
+        <v>64</v>
+      </c>
+      <c r="C46" s="9"/>
+      <c r="D46" s="7"/>
+    </row>
+    <row r="47" spans="1:4" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" t="s">
+        <v>56</v>
+      </c>
+      <c r="C47" s="10"/>
+      <c r="D47" s="8"/>
+    </row>
+    <row r="48" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>10</v>
+      </c>
+      <c r="B60" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B61" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>10</v>
+      </c>
+      <c r="B62" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>12</v>
+      </c>
+      <c r="B63" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>12</v>
+      </c>
+      <c r="B64" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>12</v>
+      </c>
+      <c r="B65" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>20</v>
+      </c>
+      <c r="B66" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>20</v>
+      </c>
+      <c r="B67" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>20</v>
+      </c>
+      <c r="B68" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>20</v>
+      </c>
+      <c r="B69" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>20</v>
+      </c>
+      <c r="B70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>20</v>
+      </c>
+      <c r="B71" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>22</v>
+      </c>
+      <c r="B72" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>22</v>
+      </c>
+      <c r="B73" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>22</v>
+      </c>
+      <c r="B74" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>22</v>
+      </c>
+      <c r="B75" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
